--- a/data/tehilim-data/95.xlsx
+++ b/data/tehilim-data/95.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="178">
   <si>
     <t>original</t>
   </si>
@@ -22,388 +22,403 @@
     <t>א</t>
   </si>
   <si>
-    <t>לְכ֣וּ</t>
+    <t>לְכוּ</t>
   </si>
   <si>
-    <t>Придите</t>
+    <t>идите</t>
   </si>
   <si>
-    <t>נְרַנְּנָ֣ה</t>
+    <t>נְרַנְּנָה</t>
   </si>
   <si>
-    <t>воспоем</t>
+    <t>будем радостно петь</t>
   </si>
   <si>
-    <t>לַֽיהוָ֑ה</t>
+    <t>לַיהוָה</t>
   </si>
   <si>
     <t>Господу</t>
   </si>
   <si>
-    <t>נָרִ֖יעָה</t>
+    <t>נָרִיעָה</t>
   </si>
   <si>
-    <t>воскликнем</t>
+    <t>будем ликовать</t>
   </si>
   <si>
-    <t>לְ֝צ֗וּר</t>
+    <t>לְצוּר</t>
   </si>
   <si>
-    <t>к</t>
+    <t>твердыне</t>
   </si>
   <si>
-    <t>יִשְׁעֵֽנוּ</t>
+    <t>יִשְׁעֵנוּ</t>
   </si>
   <si>
-    <t>скале</t>
+    <t>избавления нашего</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>נְקַדְּמָ֣ה</t>
+    <t>נְקַדְּמָה</t>
   </si>
   <si>
-    <t>предстанем</t>
+    <t>выйдем навстречу</t>
   </si>
   <si>
-    <t>פָנָ֣יו</t>
+    <t>פָנָיו</t>
+  </si>
+  <si>
+    <t>его</t>
+  </si>
+  <si>
+    <t>בְּתוֹדָה</t>
+  </si>
+  <si>
+    <t>с благодарственными</t>
+  </si>
+  <si>
+    <t>בִּזְמִרוֹת</t>
+  </si>
+  <si>
+    <t>с песнями</t>
+  </si>
+  <si>
+    <t>נָרִיעַ</t>
+  </si>
+  <si>
+    <t>לוֹ</t>
+  </si>
+  <si>
+    <t>ему</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>אֵל</t>
+  </si>
+  <si>
+    <t>бог</t>
+  </si>
+  <si>
+    <t>גָּדוֹל</t>
+  </si>
+  <si>
+    <t>велик</t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господь</t>
+  </si>
+  <si>
+    <t>וּמֶלֶךְ</t>
+  </si>
+  <si>
+    <t>и царь</t>
+  </si>
+  <si>
+    <t>עַל</t>
+  </si>
+  <si>
+    <t>над</t>
+  </si>
+  <si>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>всеми</t>
+  </si>
+  <si>
+    <t>אֱלֹהִים</t>
+  </si>
+  <si>
+    <t>божествами</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>который</t>
+  </si>
+  <si>
+    <t>בְּיָדוֹ</t>
+  </si>
+  <si>
+    <t>в руке его</t>
+  </si>
+  <si>
+    <t>מֶחְקְרֵי</t>
+  </si>
+  <si>
+    <t>глубины</t>
+  </si>
+  <si>
+    <t>אָרֶץ</t>
+  </si>
+  <si>
+    <t>земли</t>
+  </si>
+  <si>
+    <t>וְתוֹעֲפוֹת</t>
+  </si>
+  <si>
+    <t>и вершины</t>
+  </si>
+  <si>
+    <t>הָרִים</t>
+  </si>
+  <si>
+    <t>гор</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר-לוֹ</t>
+  </si>
+  <si>
+    <t>которому принадлежит</t>
+  </si>
+  <si>
+    <t>הַיָּם</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>וְהוּא</t>
+  </si>
+  <si>
+    <t>и он</t>
+  </si>
+  <si>
+    <t>עָשָׂהוּ</t>
+  </si>
+  <si>
+    <t>сотворил его</t>
+  </si>
+  <si>
+    <t>וְיָבֶשֶׁת</t>
+  </si>
+  <si>
+    <t>и сушу</t>
+  </si>
+  <si>
+    <t>יָדָיו</t>
+  </si>
+  <si>
+    <t>руки его</t>
+  </si>
+  <si>
+    <t>יָצָרוּ</t>
+  </si>
+  <si>
+    <t>сотворили</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>בֹּאוּ</t>
+  </si>
+  <si>
+    <t>придите</t>
+  </si>
+  <si>
+    <t>נִשְׁתַּחֲוֶה</t>
+  </si>
+  <si>
+    <t>падем ниц</t>
+  </si>
+  <si>
+    <t>וְנִכְרָעָה</t>
+  </si>
+  <si>
+    <t>и преломим колени</t>
+  </si>
+  <si>
+    <t>נִבְרְכָה</t>
+  </si>
+  <si>
+    <t>преклоним</t>
+  </si>
+  <si>
+    <t>לִפְנֵי</t>
   </si>
   <si>
     <t>пред лицом</t>
   </si>
   <si>
-    <t>בְּתוֹדָ֑ה</t>
+    <t>Господа</t>
   </si>
   <si>
-    <t>Его</t>
+    <t>עֹשֵׂנוּ</t>
   </si>
   <si>
-    <t>בִּ֝זְמִר֗וֹת</t>
-  </si>
-  <si>
-    <t>со славословием</t>
-  </si>
-  <si>
-    <t>נָרִ֥יעַ</t>
-  </si>
-  <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>לֽוֹ</t>
-  </si>
-  <si>
-    <t>песнопениях</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>כִּ֤י</t>
-  </si>
-  <si>
-    <t>ибо</t>
-  </si>
-  <si>
-    <t>אֵ֣ל</t>
-  </si>
-  <si>
-    <t>велик</t>
-  </si>
-  <si>
-    <t>גָּד֣וֹל</t>
-  </si>
-  <si>
-    <t>Бог</t>
-  </si>
-  <si>
-    <t>יְהוָ֑ה</t>
-  </si>
-  <si>
-    <t>Господь</t>
-  </si>
-  <si>
-    <t>וּמֶ֖לֶךְ</t>
-  </si>
-  <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>великий</t>
-  </si>
-  <si>
-    <t>עַל־</t>
-  </si>
-  <si>
-    <t>Царь</t>
-  </si>
-  <si>
-    <t>כָּל־</t>
-  </si>
-  <si>
-    <t>над</t>
-  </si>
-  <si>
-    <t>אֱלֹהִֽים</t>
-  </si>
-  <si>
-    <t>всеми</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>אֲשֶׁ֣ר</t>
-  </si>
-  <si>
-    <t>בְּיָד֣וֹ</t>
-  </si>
-  <si>
-    <t>руке</t>
-  </si>
-  <si>
-    <t>מֶחְקְרֵי־</t>
-  </si>
-  <si>
-    <t>אָ֑רֶץ</t>
-  </si>
-  <si>
-    <t>глубины</t>
-  </si>
-  <si>
-    <t>וְתוֹעֲפ֖וֹת</t>
-  </si>
-  <si>
-    <t>земли</t>
-  </si>
-  <si>
-    <t>הָרִ֣ים</t>
-  </si>
-  <si>
-    <t>לוֹ</t>
-  </si>
-  <si>
-    <t>вершины</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>ל֖וֹ</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
-    <t>הַיָּ֑ם</t>
-  </si>
-  <si>
-    <t>וְה֣וּא</t>
-  </si>
-  <si>
-    <t>Он</t>
-  </si>
-  <si>
-    <t>עָשָֽׂהוּ</t>
-  </si>
-  <si>
-    <t>сотворил</t>
-  </si>
-  <si>
-    <t>וְ֝יַבֶּשֶׁ֗ת</t>
-  </si>
-  <si>
-    <t>יָדָ֥יו</t>
-  </si>
-  <si>
-    <t>сушу</t>
-  </si>
-  <si>
-    <t>יָצָֽרוּ</t>
-  </si>
-  <si>
-    <t>руки Его создали</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>בֹּ֣אוּ</t>
-  </si>
-  <si>
-    <t>придите</t>
-  </si>
-  <si>
-    <t>נִֽשְׁתַּחֲוֶ֣ה</t>
-  </si>
-  <si>
-    <t>поклонимся</t>
-  </si>
-  <si>
-    <t>וְנִכְרָ֑עָה</t>
-  </si>
-  <si>
-    <t>נִ֝בְרְכָ֗ה</t>
-  </si>
-  <si>
-    <t>преклонимся</t>
-  </si>
-  <si>
-    <t>לִפְנֵי־</t>
-  </si>
-  <si>
-    <t>преклоним</t>
-  </si>
-  <si>
-    <t>יְהוָ֥ה</t>
-  </si>
-  <si>
-    <t>колени</t>
-  </si>
-  <si>
-    <t>עֹשֵֽׂנוּ</t>
-  </si>
-  <si>
-    <t>пред Господом</t>
+    <t>создавшего нас</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>ה֣וּא</t>
+    <t>הוּא</t>
   </si>
   <si>
-    <t>אֱלֹהֵ֣ינוּ</t>
+    <t>он</t>
   </si>
   <si>
-    <t>וַאֲנַ֤חְנוּ</t>
+    <t>אֱלֹהֵינוּ</t>
   </si>
   <si>
-    <t>наш</t>
+    <t>Бог наш</t>
   </si>
   <si>
-    <t>עַם־</t>
+    <t>וַאֲנַחְנוּ</t>
   </si>
   <si>
-    <t>מַרְעִית֗וֹ</t>
+    <t>и мы</t>
   </si>
   <si>
-    <t>мы</t>
-  </si>
-  <si>
-    <t>וְצֹ֣אן</t>
+    <t>עַם</t>
   </si>
   <si>
     <t>народ</t>
   </si>
   <si>
-    <t>יָדֽוֹ</t>
+    <t>מַרְעִיתוֹ</t>
   </si>
   <si>
-    <t>паства Его</t>
+    <t>пастбища его</t>
   </si>
   <si>
-    <t>הַיּ֗וֹם</t>
+    <t>וְצֹאן</t>
   </si>
   <si>
-    <t>אִם־</t>
+    <t>и овцы</t>
   </si>
   <si>
-    <t>овцы</t>
+    <t>יָדוֹ</t>
   </si>
   <si>
-    <t>בְּקֹל֥וֹ</t>
+    <t>הַיּוֹם</t>
   </si>
   <si>
-    <t>руки Его</t>
+    <t>сегодня</t>
   </si>
   <si>
-    <t>תִשְׁמָֽעוּ</t>
+    <t>אִם</t>
   </si>
   <si>
-    <t>о, если бы вы послушали</t>
+    <t>если</t>
+  </si>
+  <si>
+    <t>בְּקֹלוֹ</t>
+  </si>
+  <si>
+    <t>голос его</t>
+  </si>
+  <si>
+    <t>תִשְׁמָעוּ</t>
+  </si>
+  <si>
+    <t>услышите</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>אַֽל־</t>
+    <t>אַל</t>
   </si>
   <si>
-    <t>не ожесточайте</t>
+    <t>не</t>
   </si>
   <si>
-    <t>תַּקְשׁ֣וּ</t>
+    <t>תַּקְשׁוּ</t>
   </si>
   <si>
-    <t>сердце ваше</t>
+    <t>ожесточите</t>
   </si>
   <si>
-    <t>לְבַבְכֶ֣ם</t>
+    <t>לְבַבְכֶם</t>
   </si>
   <si>
-    <t>как в Мериве</t>
+    <t>сердца ваши</t>
   </si>
   <si>
-    <t>כִּמְרִיבָ֑ה</t>
+    <t>כִּמְרִיבָה</t>
+  </si>
+  <si>
+    <t>как в день Меривы</t>
+  </si>
+  <si>
+    <t>כְּיוֹם</t>
   </si>
   <si>
     <t>как в день</t>
   </si>
   <si>
-    <t>כְּי֝֗וֹם</t>
+    <t>מַסָּה</t>
   </si>
   <si>
-    <t>искушения</t>
+    <t>Массы</t>
   </si>
   <si>
-    <t>מַסָּ֥ה</t>
+    <t>בַּמִּדְבָּר</t>
   </si>
   <si>
     <t>в пустыне</t>
   </si>
   <si>
-    <t>בַּמִּדְבָּֽר</t>
-  </si>
-  <si>
     <t>ט</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר֮</t>
   </si>
   <si>
     <t>где</t>
   </si>
   <si>
-    <t>נִסּ֪וּנִ֫י</t>
+    <t>נִסּוּנִי</t>
   </si>
   <si>
-    <t>искушали</t>
+    <t>испытывали меня</t>
   </si>
   <si>
-    <t>אֲבוֹתֵיכֶ֥ם</t>
-  </si>
-  <si>
-    <t>меня</t>
-  </si>
-  <si>
-    <t>בְּחָנ֗וּנִי</t>
+    <t>אֲבוֹתֵיכֶם</t>
   </si>
   <si>
     <t>отцы ваши</t>
   </si>
   <si>
-    <t>גַּ֣ם־</t>
+    <t>בְּחָנוּנִי</t>
   </si>
   <si>
-    <t>испытывали</t>
+    <t>גַּם</t>
   </si>
   <si>
-    <t>רָא֖וּ</t>
+    <t>также</t>
   </si>
   <si>
-    <t>פָּעֳלִ֣י</t>
+    <t>רָאוּ</t>
+  </si>
+  <si>
+    <t>видели</t>
+  </si>
+  <si>
+    <t>פָעֲלִי</t>
+  </si>
+  <si>
+    <t>дела мои</t>
   </si>
   <si>
     <t>י</t>
@@ -439,37 +454,55 @@
     <t>тем родом</t>
   </si>
   <si>
+    <t>עַם־</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
     <t>תֹּעֵ֣י</t>
   </si>
   <si>
     <t>сказал</t>
   </si>
   <si>
-    <t>לֵבָ֑ב</t>
-  </si>
-  <si>
-    <t>הֵ֖ם</t>
+    <t>תֹּעֵי</t>
   </si>
   <si>
     <t>блуждающий</t>
   </si>
   <si>
-    <t>וְהֵ֣ם</t>
+    <t>לְבָב</t>
   </si>
   <si>
     <t>сердцем</t>
   </si>
   <si>
-    <t>לֹא־</t>
+    <t>הֵם</t>
   </si>
   <si>
     <t>они</t>
   </si>
   <si>
-    <t>יָ֝דְע֗וּ</t>
+    <t>וְהֵם</t>
   </si>
   <si>
-    <t>דְּרָכָֽי</t>
+    <t>и они</t>
+  </si>
+  <si>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>יָדְעוּ</t>
+  </si>
+  <si>
+    <t>знают</t>
+  </si>
+  <si>
+    <t>דְרָכָי</t>
+  </si>
+  <si>
+    <t>путей моих</t>
   </si>
   <si>
     <t>יא</t>
@@ -491,6 +524,9 @@
   </si>
   <si>
     <t>поэтому</t>
+  </si>
+  <si>
+    <t>אִם־</t>
   </si>
   <si>
     <t>יְבֹא֖וּן</t>
@@ -515,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -523,11 +559,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -551,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -562,14 +605,29 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -859,7 +917,7 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -891,7 +949,7 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -923,7 +981,7 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -955,7 +1013,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -987,7 +1045,7 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1019,7 +1077,7 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1045,13 +1103,13 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>2.0</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1083,7 +1141,7 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1115,7 +1173,7 @@
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1147,7 +1205,7 @@
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1179,7 +1237,7 @@
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1209,9 +1267,9 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1238,12 +1296,12 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1269,13 +1327,13 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
+      <c r="A16" s="4" t="s">
+        <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>3.0</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1302,12 +1360,12 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1334,12 +1392,12 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1366,12 +1424,12 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1398,12 +1456,12 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1430,12 +1488,12 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1462,12 +1520,12 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1499,7 +1557,7 @@
       <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1531,7 +1589,7 @@
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1560,10 +1618,10 @@
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
+      <c r="B25" s="7">
+        <v>4.0</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1589,13 +1647,13 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1625,9 +1683,9 @@
         <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1654,12 +1712,12 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1686,12 +1744,12 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1718,12 +1776,12 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1750,12 +1808,12 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1782,12 +1840,12 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1814,12 +1872,12 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="B33" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1845,13 +1903,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="6">
-        <v>5.0</v>
+      <c r="B34" s="5" t="s">
+        <v>59</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1878,12 +1936,12 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1910,12 +1968,12 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1942,12 +2000,12 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1974,12 +2032,12 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2006,12 +2064,12 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2038,12 +2096,12 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2070,12 +2128,12 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>68</v>
+      <c r="B41" s="7">
+        <v>6.0</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2102,12 +2160,12 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2133,13 +2191,13 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>71</v>
+      <c r="A43" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="B43" s="6">
-        <v>6.0</v>
+      <c r="B43" s="5" t="s">
+        <v>76</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2166,12 +2224,12 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2198,12 +2256,12 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2230,12 +2288,12 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2262,12 +2320,12 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2294,12 +2352,12 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2325,11 +2383,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>81</v>
+      <c r="A49" s="8" t="s">
+        <v>86</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>82</v>
+      <c r="B49" s="8">
+        <v>7.0</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2358,10 +2416,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2389,11 +2447,11 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>85</v>
+      <c r="A51" s="4" t="s">
+        <v>87</v>
       </c>
-      <c r="B51" s="6">
-        <v>7.0</v>
+      <c r="B51" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2422,10 +2480,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2454,10 +2512,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2486,10 +2544,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2518,10 +2576,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2550,10 +2608,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2582,10 +2640,10 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2614,10 +2672,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2646,10 +2704,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2678,10 +2736,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2710,10 +2768,10 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2741,11 +2799,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>100</v>
+      <c r="A62" s="8" t="s">
+        <v>108</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>101</v>
+      <c r="B62" s="8">
+        <v>8.0</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2774,10 +2832,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2805,11 +2863,11 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
-        <v>104</v>
+      <c r="A64" s="4" t="s">
+        <v>111</v>
       </c>
-      <c r="B64" s="6">
-        <v>8.0</v>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2838,10 +2896,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2870,10 +2928,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2902,10 +2960,10 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2934,10 +2992,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2966,10 +3024,10 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2997,11 +3055,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>115</v>
+      <c r="A70" s="8" t="s">
+        <v>123</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>116</v>
+      <c r="B70" s="8">
+        <v>9.0</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3030,9 +3088,11 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3059,11 +3119,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>118</v>
+      <c r="A72" s="4" t="s">
+        <v>125</v>
       </c>
-      <c r="B72" s="6">
-        <v>9.0</v>
+      <c r="B72" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3092,10 +3152,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3124,10 +3184,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3156,10 +3216,10 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3188,10 +3248,10 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3220,10 +3280,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3251,11 +3311,11 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>129</v>
+      <c r="A78" s="8" t="s">
+        <v>136</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>124</v>
+      <c r="B78" s="8">
+        <v>10.0</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3283,11 +3343,11 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>130</v>
+      <c r="A79" s="9" t="s">
+        <v>137</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>38</v>
+      <c r="B79" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3315,11 +3375,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="s">
-        <v>131</v>
+      <c r="A80" s="9" t="s">
+        <v>139</v>
       </c>
-      <c r="B80" s="6">
-        <v>10.0</v>
+      <c r="B80" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3347,11 +3407,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>132</v>
+      <c r="A81" s="9" t="s">
+        <v>141</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>133</v>
+      <c r="B81" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3379,11 +3439,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>134</v>
+      <c r="A82" s="9" t="s">
+        <v>143</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>135</v>
+      <c r="B82" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3411,11 +3471,11 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>136</v>
+      <c r="A83" s="9" t="s">
+        <v>145</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>137</v>
+      <c r="B83" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3443,11 +3503,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>138</v>
+      <c r="A84" s="9" t="s">
+        <v>147</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>139</v>
+      <c r="B84" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3475,11 +3535,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>140</v>
+      <c r="A85" s="9" t="s">
+        <v>149</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>141</v>
+      <c r="B85" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3508,10 +3568,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3540,10 +3600,10 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3572,10 +3632,10 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3604,10 +3664,10 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3636,10 +3696,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3668,10 +3728,10 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3700,10 +3760,10 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3732,10 +3792,10 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3763,10 +3823,10 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="s">
-        <v>153</v>
+      <c r="A94" s="8" t="s">
+        <v>164</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="8">
         <v>11.0</v>
       </c>
       <c r="C94" s="2"/>
@@ -3795,11 +3855,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>154</v>
+      <c r="A95" s="9" t="s">
+        <v>165</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>155</v>
+      <c r="B95" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3827,11 +3887,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>156</v>
+      <c r="A96" s="11" t="s">
+        <v>167</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>157</v>
+      <c r="B96" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3859,11 +3919,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>158</v>
+      <c r="A97" s="11" t="s">
+        <v>169</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>159</v>
+      <c r="B97" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3891,11 +3951,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>98</v>
+      <c r="A98" s="11" t="s">
+        <v>171</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>137</v>
+      <c r="B98" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3923,11 +3983,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>160</v>
+      <c r="A99" s="11" t="s">
+        <v>172</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>161</v>
+      <c r="B99" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3955,11 +4015,11 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>162</v>
+      <c r="A100" s="11" t="s">
+        <v>174</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>163</v>
+      <c r="B100" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3987,11 +4047,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>164</v>
+      <c r="A101" s="11" t="s">
+        <v>176</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>165</v>
+      <c r="B101" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4019,8 +4079,8 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4047,7 +4107,7 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4075,7 +4135,7 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4103,7 +4163,7 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4131,7 +4191,7 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4159,7 +4219,7 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4187,7 +4247,7 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4215,7 +4275,7 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="4"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4243,7 +4303,7 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4271,7 +4331,7 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="4"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4299,7 +4359,7 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4327,7 +4387,7 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4355,7 +4415,7 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4383,7 +4443,7 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="4"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4411,7 +4471,7 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4439,7 +4499,7 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4467,7 +4527,7 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4495,7 +4555,7 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="4"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4551,7 +4611,7 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4579,7 +4639,7 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4607,7 +4667,7 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4635,7 +4695,7 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4663,7 +4723,7 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -4691,7 +4751,7 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -4719,7 +4779,7 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -4747,7 +4807,7 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -4775,7 +4835,7 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -4803,7 +4863,7 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -4831,7 +4891,7 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="4"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -4859,7 +4919,7 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -4887,7 +4947,7 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="4"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4915,7 +4975,7 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -4943,7 +5003,7 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="4"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -4971,7 +5031,7 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -4999,7 +5059,7 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5027,7 +5087,7 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5055,7 +5115,7 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5083,7 +5143,7 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5111,7 +5171,7 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
+      <c r="A141" s="11"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5139,7 +5199,7 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5167,7 +5227,7 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="4"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5195,7 +5255,7 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5223,7 +5283,7 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5251,7 +5311,7 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5279,7 +5339,7 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5307,7 +5367,7 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5335,7 +5395,7 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5363,7 +5423,7 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5391,7 +5451,7 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5419,7 +5479,7 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5447,7 +5507,7 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5475,7 +5535,7 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5503,7 +5563,7 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5531,7 +5591,7 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5559,7 +5619,7 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5587,7 +5647,7 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -5615,7 +5675,7 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -5643,7 +5703,7 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -5671,7 +5731,7 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -5699,7 +5759,7 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -5727,7 +5787,7 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
+      <c r="A163" s="11"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -5755,7 +5815,7 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -5783,7 +5843,7 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -5811,7 +5871,7 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -5839,7 +5899,7 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -5867,7 +5927,7 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -5895,7 +5955,7 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -5923,7 +5983,7 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -5951,7 +6011,7 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
